--- a/DXCM_Model.xlsx
+++ b/DXCM_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDC2BDF-1514-42C7-9549-D6C7BDEBD021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594A8D9-38C6-4D43-B94E-002CC05FAB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4716,9 +4716,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -5168,7 +5168,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5189,34 +5189,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12577,8 +12577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:EQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="BY4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="CS26" sqref="CS26"/>
@@ -26052,183 +26052,183 @@
         <v>284</v>
       </c>
       <c r="O84" s="54">
-        <f>O36</f>
+        <f t="shared" ref="O84:AB84" si="251">O36</f>
         <v>293</v>
       </c>
       <c r="P84" s="54">
-        <f>P36</f>
+        <f t="shared" si="251"/>
         <v>300</v>
       </c>
       <c r="Q84" s="54">
-        <f>Q36</f>
+        <f t="shared" si="251"/>
         <v>303</v>
       </c>
       <c r="R84" s="54">
-        <f>R36</f>
+        <f t="shared" si="251"/>
         <v>301</v>
       </c>
       <c r="S84" s="54">
-        <f>S36</f>
+        <f t="shared" si="251"/>
         <v>311</v>
       </c>
       <c r="T84" s="54">
-        <f>T36</f>
+        <f t="shared" si="251"/>
         <v>311</v>
       </c>
       <c r="U84" s="54">
-        <f>U36</f>
+        <f t="shared" si="251"/>
         <v>318</v>
       </c>
       <c r="V84" s="54">
-        <f>V36</f>
+        <f t="shared" si="251"/>
         <v>322</v>
       </c>
       <c r="W84" s="54">
-        <f>W36</f>
+        <f t="shared" si="251"/>
         <v>319</v>
       </c>
       <c r="X84" s="54">
-        <f>X36</f>
+        <f t="shared" si="251"/>
         <v>328</v>
       </c>
       <c r="Y84" s="54">
-        <f>Y36</f>
+        <f t="shared" si="251"/>
         <v>334</v>
       </c>
       <c r="Z84" s="54">
-        <f>Z36</f>
+        <f t="shared" si="251"/>
         <v>336</v>
       </c>
       <c r="AA84" s="54">
-        <f>AA36</f>
+        <f t="shared" si="251"/>
         <v>334</v>
       </c>
       <c r="AB84" s="54">
-        <f>AB36</f>
+        <f t="shared" si="251"/>
         <v>341</v>
       </c>
       <c r="AC84" s="54">
-        <f t="shared" ref="O84:AL84" si="251">AC36</f>
+        <f t="shared" ref="AC84:AL84" si="252">AC36</f>
         <v>346</v>
       </c>
       <c r="AD84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>347</v>
       </c>
       <c r="AE84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>345</v>
       </c>
       <c r="AF84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>349</v>
       </c>
       <c r="AG84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>353</v>
       </c>
       <c r="AH84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>354</v>
       </c>
       <c r="AI84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>353</v>
       </c>
       <c r="AJ84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>361</v>
       </c>
       <c r="AK84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>364</v>
       </c>
       <c r="AL84" s="54">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>365</v>
       </c>
       <c r="AM84" s="54">
-        <f t="shared" ref="AM84:BG84" si="252">AM36</f>
+        <f t="shared" ref="AM84:BG84" si="253">AM36</f>
         <v>364</v>
       </c>
       <c r="AN84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>367</v>
       </c>
       <c r="AO84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>375</v>
       </c>
       <c r="AP84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>383</v>
       </c>
       <c r="AQ84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>378</v>
       </c>
       <c r="AR84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>385</v>
       </c>
       <c r="AS84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>387</v>
       </c>
       <c r="AT84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>387</v>
       </c>
       <c r="AU84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>387</v>
       </c>
       <c r="AV84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>389</v>
       </c>
       <c r="AW84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>393</v>
       </c>
       <c r="AX84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>390</v>
       </c>
       <c r="AY84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>689</v>
       </c>
       <c r="AZ84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>687</v>
       </c>
       <c r="BA84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>687</v>
       </c>
       <c r="BB84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>687</v>
       </c>
       <c r="BC84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>386</v>
       </c>
       <c r="BD84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>390</v>
       </c>
       <c r="BE84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>399</v>
       </c>
       <c r="BF84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>394</v>
       </c>
       <c r="BG84" s="54">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>394</v>
       </c>
       <c r="BH84" s="54">
@@ -26244,55 +26244,55 @@
         <v>260.25</v>
       </c>
       <c r="BT84" s="54">
-        <f t="shared" ref="BT84:CF84" si="253">BT36</f>
+        <f t="shared" ref="BT84:CF84" si="254">BT36</f>
         <v>274</v>
       </c>
       <c r="BU84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>283.25</v>
       </c>
       <c r="BV84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>299.25</v>
       </c>
       <c r="BW84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>315.5</v>
       </c>
       <c r="BX84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>329.25</v>
       </c>
       <c r="BY84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>342</v>
       </c>
       <c r="BZ84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>350.25</v>
       </c>
       <c r="CA84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>360.75</v>
       </c>
       <c r="CB84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>372.25</v>
       </c>
       <c r="CC84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>384.25</v>
       </c>
       <c r="CD84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>389.75</v>
       </c>
       <c r="CE84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>687.5</v>
       </c>
       <c r="CF84" s="54">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>392.25</v>
       </c>
     </row>
@@ -26301,235 +26301,235 @@
         <v>137</v>
       </c>
       <c r="C85" s="66">
-        <f t="shared" ref="C85:BH85" si="254">C83/C84</f>
+        <f t="shared" ref="C85:BH85" si="255">C83/C84</f>
         <v>-4.4538152610441764E-2</v>
       </c>
       <c r="D85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-1.4076923076923077E-2</v>
       </c>
       <c r="E85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-3.0370370370370367E-2</v>
       </c>
       <c r="F85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-5.7251908396946563E-2</v>
       </c>
       <c r="G85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-4.6125461254612546E-2</v>
       </c>
       <c r="H85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-3.3576642335766418E-2</v>
       </c>
       <c r="I85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-3.2246376811594202E-2</v>
       </c>
       <c r="J85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-4.363636363636364E-2</v>
       </c>
       <c r="K85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-2.1146953405017922E-2</v>
       </c>
       <c r="L85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-3.8732394366197188E-3</v>
       </c>
       <c r="M85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-2.0979020979020983E-3</v>
       </c>
       <c r="N85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>7.3943661971831009E-3</v>
       </c>
       <c r="O85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-2.1501706484641638E-2</v>
       </c>
       <c r="P85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>7.3333333333333341E-3</v>
       </c>
       <c r="Q85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>2.5412541254125412E-2</v>
       </c>
       <c r="R85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>1.2624584717607976E-2</v>
       </c>
       <c r="S85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-1.4790996784565915E-2</v>
       </c>
       <c r="T85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>3.2475884244372984E-2</v>
       </c>
       <c r="U85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>3.3018867924528295E-2</v>
       </c>
       <c r="V85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-9.316770186335371E-4</v>
       </c>
       <c r="W85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-3.6677115987460811E-2</v>
       </c>
       <c r="X85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>2.9268292682926834E-2</v>
       </c>
       <c r="Y85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>2.0658682634730533E-2</v>
       </c>
       <c r="Z85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-1.2797619047619049E-2</v>
       </c>
       <c r="AA85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-6.7664670658682632E-2</v>
       </c>
       <c r="AB85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>6.744868035190618E-3</v>
       </c>
       <c r="AC85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>6.560693641618498E-2</v>
       </c>
       <c r="AD85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>6.8011527377521613E-2</v>
       </c>
       <c r="AE85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-6.9565217391304349E-2</v>
       </c>
       <c r="AF85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>8.9111747851002857E-2</v>
       </c>
       <c r="AG85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>9.3484419263456089E-2</v>
       </c>
       <c r="AH85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>4.5197740112994357E-2</v>
       </c>
       <c r="AI85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-7.790368271954673E-2</v>
       </c>
       <c r="AJ85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>4.8753462603878119E-2</v>
       </c>
       <c r="AK85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.12307692307692307</v>
       </c>
       <c r="AL85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.26136986301369863</v>
       </c>
       <c r="AM85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-8.5989010989011003E-2</v>
       </c>
       <c r="AN85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.26130790190735692</v>
       </c>
       <c r="AO85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.26719999999999999</v>
       </c>
       <c r="AP85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.29190600522193211</v>
       </c>
       <c r="AQ85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-0.19021164021164022</v>
       </c>
       <c r="AR85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-0.10285714285714286</v>
       </c>
       <c r="AS85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.35994832041343672</v>
       </c>
       <c r="AT85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>6.589147286821706E-2</v>
       </c>
       <c r="AU85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>-7.906976744186045E-2</v>
       </c>
       <c r="AV85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.20899742930591261</v>
       </c>
       <c r="AW85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.47124681933842238</v>
       </c>
       <c r="AX85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.17641025641025643</v>
       </c>
       <c r="AY85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.11712626995645864</v>
       </c>
       <c r="AZ85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.19112081513828241</v>
       </c>
       <c r="BA85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.31848617176128091</v>
       </c>
       <c r="BB85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.1180494905385735</v>
       </c>
       <c r="BC85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.39455958549222792</v>
       </c>
       <c r="BD85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.55615384615384622</v>
       </c>
       <c r="BE85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.22130325814536339</v>
       </c>
       <c r="BF85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.44873096446700506</v>
       </c>
       <c r="BG85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.2456852791878173</v>
       </c>
       <c r="BH85" s="66">
-        <f t="shared" si="254"/>
+        <f t="shared" si="255"/>
         <v>0.53427109974424558</v>
       </c>
       <c r="BI85" s="66">
@@ -26641,7 +26641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CC1564"/>
   <sheetViews>
-    <sheetView topLeftCell="H141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA101" sqref="AA101"/>
     </sheetView>
   </sheetViews>
